--- a/12/3/Tipos de cambio 1994 a 2021 - Mensual.xlsx
+++ b/12/3/Tipos de cambio 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
   <si>
     <t>Serie</t>
   </si>
@@ -1188,6 +1188,9 @@
   <si>
     <t>01-07-2021</t>
   </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1544,7 +1547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH332"/>
+  <dimension ref="A1:BH333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54042,6 +54045,188 @@
         <v>3.8548</v>
       </c>
     </row>
+    <row r="333" spans="1:60">
+      <c r="A333" t="s">
+        <v>391</v>
+      </c>
+      <c r="B333">
+        <v>33.1103</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>4079843.1236</v>
+      </c>
+      <c r="E333">
+        <v>6.86</v>
+      </c>
+      <c r="F333">
+        <v>619.8886</v>
+      </c>
+      <c r="G333">
+        <v>21.6289</v>
+      </c>
+      <c r="H333">
+        <v>6.3176</v>
+      </c>
+      <c r="I333">
+        <v>125.9305</v>
+      </c>
+      <c r="J333">
+        <v>8.8535</v>
+      </c>
+      <c r="K333">
+        <v>8.6753</v>
+      </c>
+      <c r="L333">
+        <v>0.7032</v>
+      </c>
+      <c r="M333">
+        <v>3.672</v>
+      </c>
+      <c r="N333">
+        <v>8.9336</v>
+      </c>
+      <c r="O333">
+        <v>1.3691</v>
+      </c>
+      <c r="P333">
+        <v>1.2592</v>
+      </c>
+      <c r="Q333">
+        <v>1</v>
+      </c>
+      <c r="R333">
+        <v>2.098</v>
+      </c>
+      <c r="S333">
+        <v>0.82</v>
+      </c>
+      <c r="T333">
+        <v>1</v>
+      </c>
+      <c r="U333">
+        <v>1.3552</v>
+      </c>
+      <c r="V333">
+        <v>7.7831</v>
+      </c>
+      <c r="W333">
+        <v>1.4341</v>
+      </c>
+      <c r="X333">
+        <v>27.8703</v>
+      </c>
+      <c r="Y333">
+        <v>22838.3636</v>
+      </c>
+      <c r="Z333">
+        <v>0.8495</v>
+      </c>
+      <c r="AA333">
+        <v>298.9677</v>
+      </c>
+      <c r="AB333">
+        <v>100.8765</v>
+      </c>
+      <c r="AC333">
+        <v>0.9141</v>
+      </c>
+      <c r="AD333">
+        <v>6919.0591</v>
+      </c>
+      <c r="AE333">
+        <v>26.6334</v>
+      </c>
+      <c r="AF333">
+        <v>4.1795</v>
+      </c>
+      <c r="AG333">
+        <v>15.6647</v>
+      </c>
+      <c r="AH333">
+        <v>0.7245</v>
+      </c>
+      <c r="AI333">
+        <v>8.475300000000001</v>
+      </c>
+      <c r="AJ333">
+        <v>4.0831</v>
+      </c>
+      <c r="AK333">
+        <v>97.15219999999999</v>
+      </c>
+      <c r="AL333">
+        <v>779.8282</v>
+      </c>
+      <c r="AM333">
+        <v>3882.2005</v>
+      </c>
+      <c r="AN333">
+        <v>24</v>
+      </c>
+      <c r="AO333">
+        <v>56.869</v>
+      </c>
+      <c r="AP333">
+        <v>50.1868</v>
+      </c>
+      <c r="AQ333">
+        <v>20.0695</v>
+      </c>
+      <c r="AR333">
+        <v>43.1635</v>
+      </c>
+      <c r="AS333">
+        <v>7.7198</v>
+      </c>
+      <c r="AT333">
+        <v>14.777</v>
+      </c>
+      <c r="AU333">
+        <v>5.2512</v>
+      </c>
+      <c r="AV333">
+        <v>42000</v>
+      </c>
+      <c r="AW333">
+        <v>3.75</v>
+      </c>
+      <c r="AX333">
+        <v>4.2195</v>
+      </c>
+      <c r="AY333">
+        <v>73.5843</v>
+      </c>
+      <c r="AZ333">
+        <v>74.2016</v>
+      </c>
+      <c r="BA333">
+        <v>14384.4545</v>
+      </c>
+      <c r="BB333">
+        <v>163.9186</v>
+      </c>
+      <c r="BC333">
+        <v>3.2235</v>
+      </c>
+      <c r="BD333">
+        <v>425.0768</v>
+      </c>
+      <c r="BE333">
+        <v>1160.5473</v>
+      </c>
+      <c r="BF333">
+        <v>109.8264</v>
+      </c>
+      <c r="BG333">
+        <v>6.4765</v>
+      </c>
+      <c r="BH333">
+        <v>3.8796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/3/Tipos de cambio 1994 a 2021 - Mensual.xlsx
+++ b/12/3/Tipos de cambio 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t>Serie</t>
   </si>
@@ -1191,6 +1191,9 @@
   <si>
     <t>01-08-2021</t>
   </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1547,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH333"/>
+  <dimension ref="A1:BH334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54227,6 +54230,188 @@
         <v>3.8796</v>
       </c>
     </row>
+    <row r="334" spans="1:60">
+      <c r="A334" t="s">
+        <v>392</v>
+      </c>
+      <c r="B334">
+        <v>32.9913</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>4061071.8452</v>
+      </c>
+      <c r="E334">
+        <v>6.86</v>
+      </c>
+      <c r="F334">
+        <v>623.8967</v>
+      </c>
+      <c r="G334">
+        <v>21.5519</v>
+      </c>
+      <c r="H334">
+        <v>6.3113</v>
+      </c>
+      <c r="I334">
+        <v>127.7957</v>
+      </c>
+      <c r="J334">
+        <v>8.657299999999999</v>
+      </c>
+      <c r="K334">
+        <v>8.6333</v>
+      </c>
+      <c r="L334">
+        <v>0.7034</v>
+      </c>
+      <c r="M334">
+        <v>3.672</v>
+      </c>
+      <c r="N334">
+        <v>8.916700000000001</v>
+      </c>
+      <c r="O334">
+        <v>1.3657</v>
+      </c>
+      <c r="P334">
+        <v>1.2658</v>
+      </c>
+      <c r="Q334">
+        <v>1</v>
+      </c>
+      <c r="R334">
+        <v>2.0898</v>
+      </c>
+      <c r="S334">
+        <v>0.82</v>
+      </c>
+      <c r="T334">
+        <v>1</v>
+      </c>
+      <c r="U334">
+        <v>1.347</v>
+      </c>
+      <c r="V334">
+        <v>7.78</v>
+      </c>
+      <c r="W334">
+        <v>1.416</v>
+      </c>
+      <c r="X334">
+        <v>27.6918</v>
+      </c>
+      <c r="Y334">
+        <v>22753.2857</v>
+      </c>
+      <c r="Z334">
+        <v>0.8488</v>
+      </c>
+      <c r="AA334">
+        <v>298.7352</v>
+      </c>
+      <c r="AB334">
+        <v>101.0788</v>
+      </c>
+      <c r="AC334">
+        <v>0.9213</v>
+      </c>
+      <c r="AD334">
+        <v>6894.2143</v>
+      </c>
+      <c r="AE334">
+        <v>26.5985</v>
+      </c>
+      <c r="AF334">
+        <v>4.1965</v>
+      </c>
+      <c r="AG334">
+        <v>15.6708</v>
+      </c>
+      <c r="AH334">
+        <v>0.7276</v>
+      </c>
+      <c r="AI334">
+        <v>8.5303</v>
+      </c>
+      <c r="AJ334">
+        <v>4.1043</v>
+      </c>
+      <c r="AK334">
+        <v>98.2252</v>
+      </c>
+      <c r="AL334">
+        <v>783.6262</v>
+      </c>
+      <c r="AM334">
+        <v>3816.4662</v>
+      </c>
+      <c r="AN334">
+        <v>24</v>
+      </c>
+      <c r="AO334">
+        <v>56.4679</v>
+      </c>
+      <c r="AP334">
+        <v>50.1509</v>
+      </c>
+      <c r="AQ334">
+        <v>20.0266</v>
+      </c>
+      <c r="AR334">
+        <v>42.5587</v>
+      </c>
+      <c r="AS334">
+        <v>7.7155</v>
+      </c>
+      <c r="AT334">
+        <v>14.5462</v>
+      </c>
+      <c r="AU334">
+        <v>5.2685</v>
+      </c>
+      <c r="AV334">
+        <v>42000</v>
+      </c>
+      <c r="AW334">
+        <v>3.75</v>
+      </c>
+      <c r="AX334">
+        <v>4.1642</v>
+      </c>
+      <c r="AY334">
+        <v>72.92059999999999</v>
+      </c>
+      <c r="AZ334">
+        <v>73.53270000000001</v>
+      </c>
+      <c r="BA334">
+        <v>14248.0952</v>
+      </c>
+      <c r="BB334">
+        <v>167.9617</v>
+      </c>
+      <c r="BC334">
+        <v>3.2048</v>
+      </c>
+      <c r="BD334">
+        <v>425.0962</v>
+      </c>
+      <c r="BE334">
+        <v>1170.9333</v>
+      </c>
+      <c r="BF334">
+        <v>110.0829</v>
+      </c>
+      <c r="BG334">
+        <v>6.4546</v>
+      </c>
+      <c r="BH334">
+        <v>3.8742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/3/Tipos de cambio 1994 a 2021 - Mensual.xlsx
+++ b/12/3/Tipos de cambio 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>Serie</t>
   </si>
@@ -1194,6 +1194,9 @@
   <si>
     <t>01-09-2021</t>
   </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1550,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH334"/>
+  <dimension ref="A1:BH335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54412,6 +54415,188 @@
         <v>3.8742</v>
       </c>
     </row>
+    <row r="335" spans="1:60">
+      <c r="A335" t="s">
+        <v>393</v>
+      </c>
+      <c r="B335">
+        <v>33.4471</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>4.1787</v>
+      </c>
+      <c r="E335">
+        <v>6.86</v>
+      </c>
+      <c r="F335">
+        <v>628.701</v>
+      </c>
+      <c r="G335">
+        <v>21.9699</v>
+      </c>
+      <c r="H335">
+        <v>6.4122</v>
+      </c>
+      <c r="I335">
+        <v>128.9345</v>
+      </c>
+      <c r="J335">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="K335">
+        <v>8.668699999999999</v>
+      </c>
+      <c r="L335">
+        <v>0.7081</v>
+      </c>
+      <c r="M335">
+        <v>3.672</v>
+      </c>
+      <c r="N335">
+        <v>9.0472</v>
+      </c>
+      <c r="O335">
+        <v>1.3525</v>
+      </c>
+      <c r="P335">
+        <v>1.2451</v>
+      </c>
+      <c r="Q335">
+        <v>1</v>
+      </c>
+      <c r="R335">
+        <v>2.0915</v>
+      </c>
+      <c r="S335">
+        <v>0.82</v>
+      </c>
+      <c r="T335">
+        <v>1</v>
+      </c>
+      <c r="U335">
+        <v>1.3513</v>
+      </c>
+      <c r="V335">
+        <v>7.7797</v>
+      </c>
+      <c r="W335">
+        <v>1.419</v>
+      </c>
+      <c r="X335">
+        <v>27.9229</v>
+      </c>
+      <c r="Y335">
+        <v>22747.85</v>
+      </c>
+      <c r="Z335">
+        <v>0.862</v>
+      </c>
+      <c r="AA335">
+        <v>310.9695</v>
+      </c>
+      <c r="AB335">
+        <v>102.5765</v>
+      </c>
+      <c r="AC335">
+        <v>0.9235</v>
+      </c>
+      <c r="AD335">
+        <v>6902.965</v>
+      </c>
+      <c r="AE335">
+        <v>26.3316</v>
+      </c>
+      <c r="AF335">
+        <v>4.2629</v>
+      </c>
+      <c r="AG335">
+        <v>15.6684</v>
+      </c>
+      <c r="AH335">
+        <v>0.7307</v>
+      </c>
+      <c r="AI335">
+        <v>9.1844</v>
+      </c>
+      <c r="AJ335">
+        <v>4.0199</v>
+      </c>
+      <c r="AK335">
+        <v>99.1801</v>
+      </c>
+      <c r="AL335">
+        <v>813.9505</v>
+      </c>
+      <c r="AM335">
+        <v>3770.227</v>
+      </c>
+      <c r="AN335">
+        <v>24</v>
+      </c>
+      <c r="AO335">
+        <v>56.2135</v>
+      </c>
+      <c r="AP335">
+        <v>50.7351</v>
+      </c>
+      <c r="AQ335">
+        <v>20.4334</v>
+      </c>
+      <c r="AR335">
+        <v>43.4047</v>
+      </c>
+      <c r="AS335">
+        <v>7.7191</v>
+      </c>
+      <c r="AT335">
+        <v>14.8418</v>
+      </c>
+      <c r="AU335">
+        <v>5.531</v>
+      </c>
+      <c r="AV335">
+        <v>42000</v>
+      </c>
+      <c r="AW335">
+        <v>3.75</v>
+      </c>
+      <c r="AX335">
+        <v>4.164</v>
+      </c>
+      <c r="AY335">
+        <v>71.35639999999999</v>
+      </c>
+      <c r="AZ335">
+        <v>74.9259</v>
+      </c>
+      <c r="BA335">
+        <v>14178.3</v>
+      </c>
+      <c r="BB335">
+        <v>171.735</v>
+      </c>
+      <c r="BC335">
+        <v>3.2144</v>
+      </c>
+      <c r="BD335">
+        <v>425.455</v>
+      </c>
+      <c r="BE335">
+        <v>1182.4865</v>
+      </c>
+      <c r="BF335">
+        <v>112.994</v>
+      </c>
+      <c r="BG335">
+        <v>6.42</v>
+      </c>
+      <c r="BH335">
+        <v>3.9582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
